--- a/results/comparaison/WM/diattenuation/mean_normalized.xlsx
+++ b/results/comparaison/WM/diattenuation/mean_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,47 +966,92 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.9680559291269203</v>
       </c>
+      <c r="C3">
+        <v>1.093462048874089</v>
+      </c>
+      <c r="D3">
+        <v>1.202165905364371</v>
+      </c>
       <c r="E3">
+        <v>1.415112724252934</v>
+      </c>
+      <c r="F3">
         <v>1.056271424859992</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9682757407672649</v>
+      </c>
+      <c r="H3">
         <v>1.347691354596414</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>1.013035516011646</v>
+      </c>
+      <c r="J3">
         <v>0.9609518919427487</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.8296395125150581</v>
       </c>
-      <c r="K3">
-        <v>1.353460045062543</v>
+      <c r="L3">
+        <v>0.8882992557883533</v>
       </c>
       <c r="M3">
         <v>1.19003463655199</v>
       </c>
       <c r="N3">
+        <v>1.353460045062543</v>
+      </c>
+      <c r="O3">
+        <v>0.8540408469648333</v>
+      </c>
+      <c r="P3">
         <v>0.9029780851076317</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1.398212709695103</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.480772582359888</v>
       </c>
       <c r="S3">
-        <v>0.7464111244201932</v>
+        <v>1.090560801345854</v>
+      </c>
+      <c r="T3">
+        <v>1.045893837117171</v>
+      </c>
+      <c r="U3">
+        <v>1.038553325042518</v>
+      </c>
+      <c r="V3">
+        <v>1.215131127089825</v>
       </c>
       <c r="W3">
         <v>1.23615725417453</v>
       </c>
+      <c r="X3">
+        <v>0.9434955866075574</v>
+      </c>
       <c r="Y3">
         <v>0.8289446940525563</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.945365188829056</v>
       </c>
       <c r="AA3">
-        <v>0.9996263426719967</v>
+        <v>0.9981215176342326</v>
       </c>
       <c r="AB3">
-        <v>1.18264598409637</v>
+        <v>1.26535379471309</v>
+      </c>
+      <c r="AC3">
+        <v>1.33067930675397</v>
+      </c>
+      <c r="AD3">
+        <v>0.8457830642968094</v>
+      </c>
+      <c r="AF3">
+        <v>1.224360863527554</v>
+      </c>
+      <c r="AG3">
+        <v>1.068593479690018</v>
+      </c>
+      <c r="AH3">
+        <v>1.397743385537305</v>
+      </c>
+      <c r="AI3">
+        <v>1.383147131788069</v>
+      </c>
+      <c r="AJ3">
+        <v>1.058764452094084</v>
+      </c>
+      <c r="AL3">
+        <v>0.9096861208863843</v>
+      </c>
+      <c r="AM3">
+        <v>1.413827755143613</v>
+      </c>
+      <c r="AN3">
+        <v>1.053566351986976</v>
+      </c>
+      <c r="AO3">
+        <v>1.032860351181928</v>
+      </c>
+      <c r="AP3">
+        <v>1.119393398064382</v>
       </c>
       <c r="AQ3">
-        <v>1.36694799116358</v>
+        <v>1.248660521750814</v>
       </c>
       <c r="AR3">
-        <v>1.139477841416894</v>
+        <v>1.129471929760583</v>
       </c>
       <c r="AS3">
-        <v>1.257458649524763</v>
+        <v>0.8090205356422691</v>
       </c>
       <c r="AT3">
-        <v>0.8457830642968094</v>
+        <v>1.34435240251675</v>
       </c>
       <c r="AU3">
-        <v>1.224360863527554</v>
+        <v>1.519406386094859</v>
+      </c>
+      <c r="AV3">
+        <v>1.3692879154185</v>
       </c>
       <c r="AX3">
-        <v>1.383147131788069</v>
+        <v>1.348259830225679</v>
+      </c>
+      <c r="AY3">
+        <v>0.8115004463376009</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9517602228378649</v>
+      </c>
+      <c r="BA3">
+        <v>0.7504995999461007</v>
       </c>
       <c r="BB3">
-        <v>0.9170374472660077</v>
+        <v>0.9978093708936082</v>
       </c>
       <c r="BC3">
-        <v>0.990849800217665</v>
+        <v>0.8680918918776165</v>
+      </c>
+      <c r="BD3">
+        <v>0.8784324496913402</v>
+      </c>
+      <c r="BE3">
+        <v>0.8001625489436263</v>
       </c>
       <c r="BF3">
-        <v>0.8568918686791233</v>
+        <v>0.8544754615447373</v>
+      </c>
+      <c r="BG3">
+        <v>1.037475135111732</v>
+      </c>
+      <c r="BH3">
+        <v>0.5835320213701256</v>
       </c>
       <c r="BI3">
-        <v>1.10801553494076</v>
+        <v>0.805914381032786</v>
       </c>
       <c r="BJ3">
-        <v>0.8914796055151806</v>
+        <v>0.7882087708327478</v>
       </c>
       <c r="BK3">
-        <v>1.036152050948355</v>
+        <v>0.7366844382580844</v>
+      </c>
+      <c r="BM3">
+        <v>0.8354533723874843</v>
+      </c>
+      <c r="BN3">
+        <v>0.9368607258067527</v>
       </c>
       <c r="BO3">
-        <v>0.7851052067235729</v>
+        <v>0.7784488595343823</v>
       </c>
       <c r="BP3">
-        <v>1.005639130146882</v>
+        <v>0.9563721291700354</v>
       </c>
       <c r="BQ3">
-        <v>0.5572088767520683</v>
+        <v>1.081122795968676</v>
       </c>
       <c r="BR3">
-        <v>0.9529020937143605</v>
+        <v>0.9864328822151003</v>
       </c>
       <c r="BS3">
-        <v>1.011719025266331</v>
+        <v>1.10844848445086</v>
+      </c>
+      <c r="BT3">
+        <v>0.9158222919972758</v>
       </c>
       <c r="BU3">
-        <v>1.203491907109197</v>
+        <v>1.062300359790135</v>
       </c>
       <c r="BV3">
-        <v>0.9829117520112652</v>
+        <v>1.040598332241213</v>
+      </c>
+      <c r="BW3">
+        <v>1.150203570970471</v>
+      </c>
+      <c r="BX3">
+        <v>0.9243038137936118</v>
+      </c>
+      <c r="BY3">
+        <v>0.6976368202052571</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9624101821590287</v>
+      </c>
+      <c r="CA3">
+        <v>1.044460821811328</v>
+      </c>
+      <c r="CB3">
+        <v>0.958633092074438</v>
+      </c>
+      <c r="CC3">
+        <v>0.7487681282156233</v>
+      </c>
+      <c r="CD3">
+        <v>0.8039381151451576</v>
+      </c>
+      <c r="CE3">
+        <v>0.9747201551362377</v>
+      </c>
+      <c r="CF3">
+        <v>0.8088541467974268</v>
       </c>
       <c r="CG3">
-        <v>0.7999377823472069</v>
+        <v>0.8409519661021694</v>
+      </c>
+      <c r="CH3">
+        <v>0.7493029674432835</v>
+      </c>
+      <c r="CI3">
+        <v>0.85047678428743</v>
       </c>
       <c r="CK3">
-        <v>0.854828443738859</v>
+        <v>0.8510384867254844</v>
+      </c>
+      <c r="CL3">
+        <v>0.8711921002162525</v>
+      </c>
+      <c r="CM3">
+        <v>0.774255204200552</v>
       </c>
       <c r="CN3">
-        <v>0.6887032241127931</v>
+        <v>0.6609898281039621</v>
+      </c>
+      <c r="CO3">
+        <v>1.055006943782884</v>
+      </c>
+      <c r="CP3">
+        <v>0.8569746352319543</v>
+      </c>
+      <c r="CQ3">
+        <v>0.7697622083664515</v>
+      </c>
+      <c r="CR3">
+        <v>0.8790953704214413</v>
+      </c>
+      <c r="CS3">
+        <v>0.7871407825057821</v>
+      </c>
+      <c r="CT3">
+        <v>1.197385507145562</v>
+      </c>
+      <c r="CU3">
+        <v>0.9608921375302149</v>
+      </c>
+      <c r="CV3">
+        <v>1.110989877963716</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1.139195819166662</v>
       </c>
+      <c r="C4">
+        <v>1.124654356402141</v>
+      </c>
+      <c r="D4">
+        <v>1.184685283361582</v>
+      </c>
       <c r="E4">
+        <v>1.522202066498511</v>
+      </c>
+      <c r="F4">
         <v>1.082118971010044</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.437432111126018</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1.027206208017958</v>
+      </c>
+      <c r="J4">
         <v>1.035381626991688</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.9496850320037767</v>
       </c>
-      <c r="K4">
-        <v>1.308125409745871</v>
+      <c r="L4">
+        <v>0.9361416154709852</v>
       </c>
       <c r="M4">
         <v>1.324023272448474</v>
       </c>
       <c r="N4">
+        <v>1.308125409745871</v>
+      </c>
+      <c r="O4">
+        <v>0.9625828406784362</v>
+      </c>
+      <c r="P4">
         <v>0.94572211564327</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1.362022467570599</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>1.361055622608852</v>
       </c>
       <c r="S4">
-        <v>0.9034145888250419</v>
+        <v>1.248986539823094</v>
+      </c>
+      <c r="T4">
+        <v>1.137170087792159</v>
+      </c>
+      <c r="U4">
+        <v>1.166050888460384</v>
+      </c>
+      <c r="V4">
+        <v>1.291537090387827</v>
       </c>
       <c r="W4">
         <v>1.294984614306601</v>
       </c>
+      <c r="X4">
+        <v>1.050714641971641</v>
+      </c>
       <c r="Y4">
         <v>0.991269318316116</v>
       </c>
       <c r="Z4">
         <v>1.04948196285004</v>
       </c>
+      <c r="AA4">
+        <v>0.9990739921233803</v>
+      </c>
       <c r="AB4">
-        <v>1.140781777887706</v>
+        <v>1.218841198770615</v>
+      </c>
+      <c r="AC4">
+        <v>1.253094147229638</v>
+      </c>
+      <c r="AD4">
+        <v>0.7353363992554793</v>
+      </c>
+      <c r="AF4">
+        <v>1.084799286883922</v>
+      </c>
+      <c r="AG4">
+        <v>1.063208989279061</v>
       </c>
       <c r="AH4">
+        <v>1.320347244966442</v>
+      </c>
+      <c r="AI4">
+        <v>1.447859953786806</v>
+      </c>
+      <c r="AJ4">
+        <v>1.03230879901972</v>
+      </c>
+      <c r="AL4">
+        <v>0.9823895777816042</v>
+      </c>
+      <c r="AM4">
+        <v>1.524520198365835</v>
+      </c>
+      <c r="AN4">
         <v>1.128307860375838</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>0.9483371855818716</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>1.080167817584714</v>
+      </c>
+      <c r="AQ4">
+        <v>1.228420681969884</v>
+      </c>
+      <c r="AR4">
         <v>0.9968149349880805</v>
       </c>
-      <c r="AM4">
-        <v>0.859595988096355</v>
-      </c>
-      <c r="AQ4">
-        <v>1.294850567541433</v>
-      </c>
-      <c r="AR4">
-        <v>1.084050912204068</v>
-      </c>
-      <c r="AS4">
-        <v>1.168123026839353</v>
-      </c>
       <c r="AT4">
-        <v>0.7353363992554793</v>
+        <v>1.224615380366774</v>
       </c>
       <c r="AU4">
-        <v>1.084799286883922</v>
-      </c>
-      <c r="AX4">
-        <v>1.447859953786806</v>
+        <v>1.504318653154526</v>
+      </c>
+      <c r="AV4">
+        <v>1.364250237115299</v>
+      </c>
+      <c r="AZ4">
+        <v>0.9943444573073749</v>
+      </c>
+      <c r="BA4">
+        <v>1.095023425014277</v>
       </c>
       <c r="BB4">
-        <v>0.9499049829922757</v>
+        <v>1.08401957011777</v>
       </c>
       <c r="BC4">
-        <v>1.03718351299499</v>
+        <v>0.8432560668275764</v>
+      </c>
+      <c r="BD4">
+        <v>0.8938917024911988</v>
+      </c>
+      <c r="BE4">
+        <v>0.8834146384064356</v>
+      </c>
+      <c r="BF4">
+        <v>0.9011841133441468</v>
+      </c>
+      <c r="BG4">
+        <v>1.02940927471791</v>
+      </c>
+      <c r="BH4">
+        <v>0.6361351308134378</v>
       </c>
       <c r="BI4">
-        <v>1.011302047452943</v>
+        <v>0.8356573213273213</v>
       </c>
       <c r="BJ4">
-        <v>0.904692614263001</v>
+        <v>0.8699161521129605</v>
       </c>
       <c r="BK4">
-        <v>1.110927467356832</v>
+        <v>0.7801848690443399</v>
+      </c>
+      <c r="BL4">
+        <v>0.8457237433704403</v>
+      </c>
+      <c r="BM4">
+        <v>0.8268127118311965</v>
+      </c>
+      <c r="BN4">
+        <v>1.019840845903482</v>
+      </c>
+      <c r="BO4">
+        <v>0.8168545997932873</v>
       </c>
       <c r="BP4">
-        <v>1.064787370548937</v>
-      </c>
-      <c r="BS4">
-        <v>1.055795551999429</v>
+        <v>0.9473900128820142</v>
+      </c>
+      <c r="BQ4">
+        <v>1.164476706822264</v>
+      </c>
+      <c r="BR4">
+        <v>1.078785310253163</v>
+      </c>
+      <c r="BT4">
+        <v>0.9365921863133426</v>
       </c>
       <c r="BU4">
-        <v>1.295016297425319</v>
+        <v>1.100488813668345</v>
       </c>
       <c r="BV4">
-        <v>1.002756173701643</v>
+        <v>1.030055891177075</v>
+      </c>
+      <c r="BW4">
+        <v>1.202032962503378</v>
+      </c>
+      <c r="BX4">
+        <v>0.9763898714637925</v>
+      </c>
+      <c r="BY4">
+        <v>0.7536683228387114</v>
+      </c>
+      <c r="BZ4">
+        <v>1.170239244753953</v>
+      </c>
+      <c r="CA4">
+        <v>1.119388572673676</v>
+      </c>
+      <c r="CB4">
+        <v>0.9974205262342105</v>
+      </c>
+      <c r="CC4">
+        <v>0.8090636300674663</v>
+      </c>
+      <c r="CD4">
+        <v>0.8612096599813396</v>
+      </c>
+      <c r="CE4">
+        <v>1.102836928526515</v>
       </c>
       <c r="CF4">
-        <v>0.715618111229383</v>
+        <v>0.8820463523693728</v>
+      </c>
+      <c r="CG4">
+        <v>1.005469523974085</v>
       </c>
       <c r="CH4">
-        <v>0.9319179788833011</v>
+        <v>0.7881844658127605</v>
+      </c>
+      <c r="CI4">
+        <v>0.9405468441719952</v>
       </c>
       <c r="CK4">
-        <v>0.895700955339351</v>
+        <v>0.9585656513866539</v>
+      </c>
+      <c r="CL4">
+        <v>0.8681400504736149</v>
+      </c>
+      <c r="CM4">
+        <v>0.8043942688770155</v>
       </c>
       <c r="CN4">
-        <v>0.7486070222621812</v>
+        <v>0.9617394044903416</v>
+      </c>
+      <c r="CO4">
+        <v>1.215770638340075</v>
+      </c>
+      <c r="CP4">
+        <v>0.9843435416070289</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8285260850265419</v>
+      </c>
+      <c r="CR4">
+        <v>0.9540307662902071</v>
+      </c>
+      <c r="CS4">
+        <v>0.8826082268493484</v>
+      </c>
+      <c r="CT4">
+        <v>1.225728618781412</v>
+      </c>
+      <c r="CU4">
+        <v>0.8578565688290951</v>
+      </c>
+      <c r="CV4">
+        <v>1.243723886937576</v>
+      </c>
+      <c r="CW4">
+        <v>0.518979713308242</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.302184401434104</v>
       </c>
+      <c r="C5">
+        <v>0.9675095657143016</v>
+      </c>
       <c r="D5">
+        <v>1.233505481282783</v>
+      </c>
+      <c r="E5">
         <v>1.451571464819147</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.163302513400727</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.692897926486276</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0.8554639031371258</v>
+      </c>
+      <c r="J5">
         <v>1.380664284529249</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.98078418499631</v>
       </c>
-      <c r="K5">
-        <v>1.554636264202794</v>
+      <c r="L5">
+        <v>1.00985628083841</v>
       </c>
       <c r="M5">
         <v>1.626283148392664</v>
       </c>
       <c r="N5">
+        <v>1.554636264202794</v>
+      </c>
+      <c r="O5">
+        <v>1.328436579505822</v>
+      </c>
+      <c r="P5">
         <v>1.189569782166612</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1.525123406680344</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>1.586577734360051</v>
       </c>
       <c r="S5">
-        <v>1.142075612120534</v>
+        <v>1.373311949059084</v>
+      </c>
+      <c r="T5">
+        <v>1.227648365517205</v>
+      </c>
+      <c r="U5">
+        <v>1.21071466826521</v>
+      </c>
+      <c r="V5">
+        <v>1.389952588154657</v>
       </c>
       <c r="W5">
         <v>1.622526707946405</v>
       </c>
+      <c r="X5">
+        <v>1.134409353907902</v>
+      </c>
       <c r="Y5">
         <v>1.220037791232816</v>
       </c>
       <c r="Z5">
         <v>1.375153405844186</v>
       </c>
+      <c r="AA5">
+        <v>0.9618067104977882</v>
+      </c>
       <c r="AB5">
-        <v>0.9895482626621077</v>
+        <v>1.176010145015125</v>
+      </c>
+      <c r="AC5">
+        <v>1.236228028217079</v>
+      </c>
+      <c r="AD5">
+        <v>0.769070277139498</v>
+      </c>
+      <c r="AF5">
+        <v>1.091022120008781</v>
+      </c>
+      <c r="AG5">
+        <v>1.195537079369475</v>
+      </c>
+      <c r="AH5">
+        <v>1.188651375363659</v>
+      </c>
+      <c r="AI5">
+        <v>1.590560662588861</v>
+      </c>
+      <c r="AJ5">
+        <v>1.152976134020264</v>
+      </c>
+      <c r="AL5">
+        <v>0.8801974799089594</v>
+      </c>
+      <c r="AM5">
+        <v>1.389825552375586</v>
+      </c>
+      <c r="AN5">
+        <v>1.214904074270664</v>
+      </c>
+      <c r="AO5">
+        <v>0.9547900437648955</v>
+      </c>
+      <c r="AP5">
+        <v>1.038963173421627</v>
       </c>
       <c r="AQ5">
-        <v>1.276521491017935</v>
+        <v>1.331819684137319</v>
       </c>
       <c r="AR5">
-        <v>1.110030470264801</v>
+        <v>0.9775738712152873</v>
       </c>
       <c r="AS5">
-        <v>1.32105083001444</v>
+        <v>0.8388691566266061</v>
       </c>
       <c r="AT5">
-        <v>0.769070277139498</v>
+        <v>1.188905670573329</v>
       </c>
       <c r="AU5">
-        <v>1.091022120008781</v>
-      </c>
-      <c r="AX5">
-        <v>1.590560662588861</v>
+        <v>1.385511500645269</v>
+      </c>
+      <c r="AV5">
+        <v>1.331811325690941</v>
+      </c>
+      <c r="AY5">
+        <v>0.8970561834457003</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9968125283805792</v>
+      </c>
+      <c r="BA5">
+        <v>0.7548081661200333</v>
       </c>
       <c r="BB5">
-        <v>0.8739255696105759</v>
+        <v>1.187531411898644</v>
       </c>
       <c r="BC5">
-        <v>0.8991871096785916</v>
+        <v>0.6696058836234127</v>
+      </c>
+      <c r="BD5">
+        <v>0.8598075658078729</v>
       </c>
       <c r="BE5">
-        <v>0.857567904820477</v>
+        <v>0.8270713344700843</v>
+      </c>
+      <c r="BF5">
+        <v>0.9342322692527942</v>
+      </c>
+      <c r="BG5">
+        <v>1.04066111396075</v>
+      </c>
+      <c r="BH5">
+        <v>0.6386867226755797</v>
       </c>
       <c r="BI5">
-        <v>1.045364584232626</v>
+        <v>0.8262548715275085</v>
+      </c>
+      <c r="BJ5">
+        <v>0.8418968654305452</v>
       </c>
       <c r="BK5">
-        <v>1.199885979779894</v>
+        <v>0.7183967255714736</v>
+      </c>
+      <c r="BM5">
+        <v>0.8671876616821368</v>
+      </c>
+      <c r="BN5">
+        <v>0.9875183988262476</v>
+      </c>
+      <c r="BO5">
+        <v>0.7806749721995849</v>
       </c>
       <c r="BP5">
-        <v>0.8770138723413975</v>
-      </c>
-      <c r="BS5">
-        <v>0.9637103731818129</v>
+        <v>0.8491318338427448</v>
+      </c>
+      <c r="BQ5">
+        <v>1.072429995396905</v>
+      </c>
+      <c r="BR5">
+        <v>1.01004364882155</v>
+      </c>
+      <c r="BT5">
+        <v>0.9368471829958851</v>
       </c>
       <c r="BU5">
-        <v>1.105960159966201</v>
+        <v>0.9195312690210304</v>
       </c>
       <c r="BV5">
-        <v>1.011246711464911</v>
+        <v>1.013753444828599</v>
+      </c>
+      <c r="BW5">
+        <v>0.9684158824483591</v>
+      </c>
+      <c r="BX5">
+        <v>0.9483186694581511</v>
+      </c>
+      <c r="BY5">
+        <v>0.6784068030914624</v>
       </c>
       <c r="BZ5">
-        <v>1.04860752363343</v>
+        <v>1.05377780951485</v>
+      </c>
+      <c r="CA5">
+        <v>1.054015450594616</v>
+      </c>
+      <c r="CB5">
+        <v>0.9713805464955908</v>
       </c>
       <c r="CC5">
-        <v>0.9925478908369169</v>
+        <v>0.7123799871945943</v>
+      </c>
+      <c r="CD5">
+        <v>0.8291387337994096</v>
+      </c>
+      <c r="CE5">
+        <v>1.153998478040996</v>
+      </c>
+      <c r="CF5">
+        <v>0.7305225786628057</v>
+      </c>
+      <c r="CG5">
+        <v>0.9687105699269175</v>
       </c>
       <c r="CH5">
-        <v>0.9077643291344359</v>
+        <v>0.8076693556672895</v>
+      </c>
+      <c r="CI5">
+        <v>0.8490449678891624</v>
       </c>
       <c r="CK5">
-        <v>0.8642318080121227</v>
+        <v>0.8385211685364343</v>
+      </c>
+      <c r="CL5">
+        <v>0.9124904427279652</v>
+      </c>
+      <c r="CM5">
+        <v>0.8141884737354231</v>
+      </c>
+      <c r="CN5">
+        <v>0.7965063185281931</v>
+      </c>
+      <c r="CO5">
+        <v>1.185426760013885</v>
       </c>
       <c r="CP5">
-        <v>1.097192459503556</v>
+        <v>0.8546042421312755</v>
+      </c>
+      <c r="CQ5">
+        <v>0.7177031390796148</v>
+      </c>
+      <c r="CR5">
+        <v>1.00503619090098</v>
       </c>
       <c r="CS5">
-        <v>1.00503619090098</v>
+        <v>0.8251058835923687</v>
+      </c>
+      <c r="CT5">
+        <v>1.32221230701752</v>
+      </c>
+      <c r="CU5">
+        <v>1.045893119205571</v>
+      </c>
+      <c r="CV5">
+        <v>1.196242762627845</v>
+      </c>
+      <c r="CW5">
+        <v>0.4926247659557607</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1.126009393492026</v>
       </c>
+      <c r="C6">
+        <v>0.9270399505265842</v>
+      </c>
+      <c r="D6">
+        <v>1.149304551898834</v>
+      </c>
       <c r="E6">
+        <v>1.534534210147352</v>
+      </c>
+      <c r="F6">
         <v>1.07440119665923</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.475307968651445</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>1.008443300476862</v>
+      </c>
+      <c r="J6">
         <v>1.286680372012217</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.075565219713662</v>
       </c>
-      <c r="K6">
-        <v>1.474892754470073</v>
+      <c r="L6">
+        <v>0.9850326973782223</v>
       </c>
       <c r="M6">
         <v>1.57059680147986</v>
       </c>
       <c r="N6">
+        <v>1.474892754470073</v>
+      </c>
+      <c r="O6">
+        <v>1.263683593422806</v>
+      </c>
+      <c r="P6">
         <v>1.223155344466341</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>1.410806407394942</v>
+      </c>
+      <c r="R6">
         <v>1.341491983100972</v>
       </c>
       <c r="S6">
-        <v>1.010637307505301</v>
+        <v>1.327442390239254</v>
+      </c>
+      <c r="T6">
+        <v>1.228094786333888</v>
+      </c>
+      <c r="U6">
+        <v>1.218150260126674</v>
+      </c>
+      <c r="V6">
+        <v>1.499604795807024</v>
       </c>
       <c r="W6">
         <v>1.59357047512699</v>
       </c>
+      <c r="X6">
+        <v>1.245148010806976</v>
+      </c>
       <c r="Y6">
         <v>1.020944133357096</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>1.27924072298707</v>
       </c>
       <c r="AA6">
-        <v>0.8201221992291867</v>
+        <v>0.9348281963534723</v>
       </c>
       <c r="AB6">
-        <v>0.8145125981368563</v>
+        <v>1.157526037139198</v>
+      </c>
+      <c r="AC6">
+        <v>1.167878587128369</v>
+      </c>
+      <c r="AD6">
+        <v>0.845888917792585</v>
+      </c>
+      <c r="AF6">
+        <v>1.361879134323163</v>
+      </c>
+      <c r="AG6">
+        <v>1.102853824685469</v>
+      </c>
+      <c r="AH6">
+        <v>1.1815110915436</v>
+      </c>
+      <c r="AI6">
+        <v>2.176081020683018</v>
+      </c>
+      <c r="AJ6">
+        <v>1.472869281914423</v>
+      </c>
+      <c r="AK6">
+        <v>1.142326672004724</v>
+      </c>
+      <c r="AL6">
+        <v>0.9230182850651794</v>
+      </c>
+      <c r="AM6">
+        <v>1.468132163598899</v>
+      </c>
+      <c r="AN6">
+        <v>1.082679104415279</v>
+      </c>
+      <c r="AO6">
+        <v>1.079850240798832</v>
+      </c>
+      <c r="AP6">
+        <v>0.907775354946938</v>
       </c>
       <c r="AQ6">
-        <v>1.291287174005261</v>
+        <v>1.27066642039749</v>
       </c>
       <c r="AR6">
-        <v>0.9810748578760093</v>
+        <v>1.162679901516044</v>
       </c>
       <c r="AS6">
-        <v>1.22388562969096</v>
+        <v>0.8139829576324089</v>
       </c>
       <c r="AT6">
-        <v>0.845888917792585</v>
+        <v>1.1143456886999</v>
       </c>
       <c r="AU6">
-        <v>1.361879134323163</v>
+        <v>1.412415023049697</v>
+      </c>
+      <c r="AV6">
+        <v>1.248172932329325</v>
+      </c>
+      <c r="AW6">
+        <v>1.062563266644845</v>
       </c>
       <c r="AX6">
-        <v>2.176081020683018</v>
+        <v>1.288160732091205</v>
+      </c>
+      <c r="AY6">
+        <v>0.8752998477350519</v>
       </c>
       <c r="AZ6">
-        <v>0.8734756837782883</v>
+        <v>1.032587692346639</v>
+      </c>
+      <c r="BA6">
+        <v>1.07303437302016</v>
       </c>
       <c r="BB6">
-        <v>1.108014409534091</v>
+        <v>1.133118493433205</v>
+      </c>
+      <c r="BC6">
+        <v>0.8020249847480433</v>
+      </c>
+      <c r="BD6">
+        <v>0.7699388547746659</v>
       </c>
       <c r="BE6">
-        <v>0.8558538080636281</v>
+        <v>0.7644569742436148</v>
+      </c>
+      <c r="BF6">
+        <v>1.043411032465444</v>
+      </c>
+      <c r="BG6">
+        <v>1.023414538916742</v>
+      </c>
+      <c r="BH6">
+        <v>0.6902302203736849</v>
       </c>
       <c r="BI6">
-        <v>1.029198124473069</v>
+        <v>0.8544954266515177</v>
       </c>
       <c r="BJ6">
-        <v>0.8282035590687734</v>
+        <v>0.9406857649476373</v>
       </c>
       <c r="BK6">
-        <v>1.14184554392417</v>
+        <v>0.7552292668265289</v>
+      </c>
+      <c r="BL6">
+        <v>0.8054571654016123</v>
+      </c>
+      <c r="BM6">
+        <v>0.8019083523742576</v>
+      </c>
+      <c r="BN6">
+        <v>0.9686448507181922</v>
+      </c>
+      <c r="BO6">
+        <v>0.9526942572009989</v>
       </c>
       <c r="BP6">
-        <v>1.057351708843296</v>
+        <v>0.9944069255615825</v>
+      </c>
+      <c r="BQ6">
+        <v>1.19407945052738</v>
       </c>
       <c r="BR6">
-        <v>0.9034529070599056</v>
+        <v>1.004048159753637</v>
       </c>
       <c r="BS6">
-        <v>0.979962244582703</v>
+        <v>1.166216856963808</v>
+      </c>
+      <c r="BT6">
+        <v>1.048942147258164</v>
       </c>
       <c r="BU6">
-        <v>1.30219921759934</v>
+        <v>1.103048059029479</v>
       </c>
       <c r="BV6">
-        <v>1.15903415284989</v>
+        <v>0.9947930263693456</v>
+      </c>
+      <c r="BW6">
+        <v>1.144916358029815</v>
+      </c>
+      <c r="BX6">
+        <v>0.9675462722985171</v>
+      </c>
+      <c r="BY6">
+        <v>0.7954167499484024</v>
       </c>
       <c r="BZ6">
-        <v>1.093890224541233</v>
+        <v>1.045791306264659</v>
       </c>
       <c r="CA6">
-        <v>0.5494233564373482</v>
+        <v>1.094312572689438</v>
+      </c>
+      <c r="CB6">
+        <v>0.9300666042112568</v>
       </c>
       <c r="CC6">
-        <v>1.236523537338916</v>
+        <v>0.875446268208895</v>
+      </c>
+      <c r="CD6">
+        <v>0.8773581646273826</v>
+      </c>
+      <c r="CE6">
+        <v>1.116675018557797</v>
       </c>
       <c r="CF6">
-        <v>0.7903437351980734</v>
+        <v>0.8268498558095994</v>
       </c>
       <c r="CG6">
-        <v>0.8547761859934658</v>
+        <v>0.7965274489184148</v>
       </c>
       <c r="CH6">
-        <v>0.9080055776772814</v>
+        <v>0.8899451910011847</v>
+      </c>
+      <c r="CI6">
+        <v>0.8800139088858039</v>
       </c>
       <c r="CK6">
-        <v>0.8383851246463482</v>
+        <v>0.8839157913561609</v>
+      </c>
+      <c r="CL6">
+        <v>0.9937924149458551</v>
+      </c>
+      <c r="CM6">
+        <v>0.7998068558745676</v>
       </c>
       <c r="CN6">
-        <v>0.7530746067267342</v>
+        <v>0.9494388324234938</v>
+      </c>
+      <c r="CO6">
+        <v>1.200710637215788</v>
       </c>
       <c r="CP6">
-        <v>1.071197987821869</v>
+        <v>0.7846904062040198</v>
+      </c>
+      <c r="CQ6">
+        <v>0.7478806146789614</v>
       </c>
       <c r="CR6">
-        <v>1.296406615357654</v>
+        <v>0.9503582112620348</v>
       </c>
       <c r="CS6">
-        <v>0.9503582112620348</v>
+        <v>0.9210976912306552</v>
+      </c>
+      <c r="CT6">
+        <v>1.349880639557603</v>
+      </c>
+      <c r="CU6">
+        <v>1.173238745378616</v>
+      </c>
+      <c r="CV6">
+        <v>1.137099156651279</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1.343020895176674</v>
       </c>
+      <c r="C7">
+        <v>1.113857964225463</v>
+      </c>
+      <c r="D7">
+        <v>1.342948467937946</v>
+      </c>
       <c r="E7">
+        <v>1.655351102794536</v>
+      </c>
+      <c r="F7">
         <v>1.193104498029597</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.855394328487969</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1.034988298572304</v>
+      </c>
+      <c r="J7">
         <v>1.535836778661961</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.213517101252249</v>
       </c>
-      <c r="K7">
-        <v>1.812733565642013</v>
+      <c r="L7">
+        <v>1.132633605725772</v>
       </c>
       <c r="M7">
         <v>1.713522868567642</v>
       </c>
       <c r="N7">
+        <v>1.812733565642013</v>
+      </c>
+      <c r="O7">
+        <v>1.344818578565418</v>
+      </c>
+      <c r="P7">
         <v>1.320224664021568</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.65509690139465</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.70926969492523</v>
       </c>
       <c r="S7">
-        <v>1.121508963379932</v>
+        <v>1.237740408321837</v>
+      </c>
+      <c r="T7">
+        <v>1.20077605027192</v>
+      </c>
+      <c r="U7">
+        <v>1.217113920615553</v>
+      </c>
+      <c r="V7">
+        <v>1.309317983571813</v>
       </c>
       <c r="W7">
         <v>1.767210889075404</v>
       </c>
+      <c r="X7">
+        <v>1.210997910809779</v>
+      </c>
       <c r="Y7">
         <v>1.278105705187379</v>
       </c>
       <c r="Z7">
         <v>1.35049994755319</v>
       </c>
+      <c r="AA7">
+        <v>0.9288573870815214</v>
+      </c>
       <c r="AB7">
-        <v>0.8970220259039916</v>
+        <v>1.161337087080571</v>
+      </c>
+      <c r="AC7">
+        <v>1.263092123129891</v>
+      </c>
+      <c r="AD7">
+        <v>0.8486063057802077</v>
+      </c>
+      <c r="AE7">
+        <v>0.4365268034609756</v>
+      </c>
+      <c r="AF7">
+        <v>1.292640212322744</v>
+      </c>
+      <c r="AG7">
+        <v>1.078512107504191</v>
+      </c>
+      <c r="AH7">
+        <v>1.328583741131548</v>
+      </c>
+      <c r="AI7">
+        <v>1.469795827959646</v>
+      </c>
+      <c r="AJ7">
+        <v>1.112336016595508</v>
       </c>
       <c r="AK7">
+        <v>1.120830329997844</v>
+      </c>
+      <c r="AL7">
+        <v>0.8657638248028178</v>
+      </c>
+      <c r="AM7">
+        <v>1.545074546763646</v>
+      </c>
+      <c r="AN7">
+        <v>1.27105992936463</v>
+      </c>
+      <c r="AO7">
+        <v>1.105774682175213</v>
+      </c>
+      <c r="AP7">
+        <v>0.9255847915820452</v>
+      </c>
+      <c r="AQ7">
+        <v>1.241026318288768</v>
+      </c>
+      <c r="AR7">
         <v>0.943701650441564</v>
       </c>
-      <c r="AQ7">
-        <v>1.210007460046595</v>
-      </c>
-      <c r="AR7">
-        <v>1.107196565128264</v>
-      </c>
       <c r="AS7">
-        <v>1.164621316948705</v>
+        <v>0.9039619152027509</v>
       </c>
       <c r="AT7">
-        <v>0.8486063057802077</v>
+        <v>1.09746520969662</v>
       </c>
       <c r="AU7">
-        <v>1.292640212322744</v>
+        <v>1.460711717959039</v>
+      </c>
+      <c r="AV7">
+        <v>1.209444313008951</v>
+      </c>
+      <c r="AW7">
+        <v>1.104436646814677</v>
       </c>
       <c r="AX7">
-        <v>1.469795827959646</v>
+        <v>1.41048340187872</v>
+      </c>
+      <c r="AY7">
+        <v>0.9656255527895524</v>
+      </c>
+      <c r="AZ7">
+        <v>1.030086430938166</v>
+      </c>
+      <c r="BA7">
+        <v>0.8163493240791316</v>
       </c>
       <c r="BB7">
-        <v>0.9522384146016813</v>
+        <v>1.334362478517863</v>
       </c>
       <c r="BC7">
-        <v>0.8244051577236072</v>
+        <v>0.8799122464598069</v>
+      </c>
+      <c r="BD7">
+        <v>0.9728940886755453</v>
+      </c>
+      <c r="BE7">
+        <v>0.9296641891730569</v>
+      </c>
+      <c r="BF7">
+        <v>1.014039911014854</v>
+      </c>
+      <c r="BG7">
+        <v>1.183591671014385</v>
+      </c>
+      <c r="BH7">
+        <v>0.8439862620238781</v>
       </c>
       <c r="BI7">
-        <v>1.128311066111441</v>
+        <v>1.019468332447044</v>
       </c>
       <c r="BJ7">
-        <v>0.8401962742244318</v>
+        <v>0.9493981928282087</v>
       </c>
       <c r="BK7">
-        <v>1.318296383494104</v>
+        <v>0.8717728412752354</v>
+      </c>
+      <c r="BL7">
+        <v>0.7819702932016863</v>
+      </c>
+      <c r="BM7">
+        <v>0.7796586660262712</v>
+      </c>
+      <c r="BN7">
+        <v>1.055147771458803</v>
+      </c>
+      <c r="BO7">
+        <v>0.8541558724692355</v>
       </c>
       <c r="BP7">
-        <v>0.9378228258537101</v>
+        <v>1.249079693114144</v>
+      </c>
+      <c r="BQ7">
+        <v>1.026003929978485</v>
       </c>
       <c r="BR7">
-        <v>0.8877047367351834</v>
-      </c>
-      <c r="BS7">
-        <v>0.9654655527162653</v>
+        <v>0.9193711549316597</v>
+      </c>
+      <c r="BT7">
+        <v>0.8612172412659844</v>
       </c>
       <c r="BU7">
-        <v>1.138239566560675</v>
+        <v>0.8572791963803393</v>
       </c>
       <c r="BV7">
-        <v>0.9812219674823743</v>
+        <v>1.184801910421666</v>
+      </c>
+      <c r="BW7">
+        <v>0.9686519007023736</v>
+      </c>
+      <c r="BX7">
+        <v>1.048934033475694</v>
+      </c>
+      <c r="BY7">
+        <v>0.8849737847638834</v>
+      </c>
+      <c r="BZ7">
+        <v>1.046373675057416</v>
+      </c>
+      <c r="CA7">
+        <v>1.054743564458285</v>
+      </c>
+      <c r="CB7">
+        <v>1.08993971601709</v>
+      </c>
+      <c r="CC7">
+        <v>0.8148514470212421</v>
+      </c>
+      <c r="CD7">
+        <v>0.988565445983499</v>
+      </c>
+      <c r="CE7">
+        <v>1.072085487669536</v>
       </c>
       <c r="CF7">
-        <v>0.884617131495251</v>
+        <v>0.9874323293095761</v>
       </c>
       <c r="CG7">
-        <v>0.9338826618498685</v>
+        <v>0.9591920749146077</v>
       </c>
       <c r="CH7">
-        <v>1.023203453080266</v>
+        <v>0.8980528483503765</v>
+      </c>
+      <c r="CI7">
+        <v>0.9983551330721949</v>
+      </c>
+      <c r="CK7">
+        <v>0.964396077504459</v>
+      </c>
+      <c r="CL7">
+        <v>1.178078525270262</v>
+      </c>
+      <c r="CM7">
+        <v>0.9161708927184439</v>
+      </c>
+      <c r="CN7">
+        <v>0.7717153130013186</v>
+      </c>
+      <c r="CO7">
+        <v>1.296914882939806</v>
+      </c>
+      <c r="CP7">
+        <v>1.074772294946348</v>
+      </c>
+      <c r="CQ7">
+        <v>0.9511475516695909</v>
+      </c>
+      <c r="CR7">
+        <v>1.223987438983824</v>
+      </c>
+      <c r="CS7">
+        <v>0.9812559890250397</v>
+      </c>
+      <c r="CT7">
+        <v>1.335353460589142</v>
+      </c>
+      <c r="CU7">
+        <v>1.18355752278044</v>
+      </c>
+      <c r="CV7">
+        <v>1.490488736404919</v>
       </c>
     </row>
   </sheetData>
